--- a/Project_177/TestData/InputData.xlsx
+++ b/Project_177/TestData/InputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="7950" windowHeight="3495"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="7950" windowHeight="3495" tabRatio="709" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="241">
   <si>
     <t>ApplicationURl</t>
   </si>
@@ -77,9 +77,6 @@
     <t>http://outlook.com</t>
   </si>
   <si>
-    <t>.//*[@id='i0116']</t>
-  </si>
-  <si>
     <t>sunilreddy.gajjala@outlook.com</t>
   </si>
   <si>
@@ -744,6 +741,9 @@
   </si>
   <si>
     <t>24/2/2020</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -1153,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1171,7 +1171,7 @@
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1191,15 +1191,18 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1214,26 +1217,26 @@
         <v>10000.120000000001</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="11"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="D10" s="11"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="E12" s="11"/>
     </row>
   </sheetData>
@@ -1250,7 +1253,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1303,25 +1306,25 @@
         <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1334,51 +1337,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:B40"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>2</v>
@@ -1386,282 +1389,282 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" t="s">
         <v>188</v>
-      </c>
-      <c r="B31" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" t="s">
         <v>190</v>
-      </c>
-      <c r="B32" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" t="s">
         <v>192</v>
-      </c>
-      <c r="B33" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" t="s">
         <v>194</v>
-      </c>
-      <c r="B34" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" t="s">
         <v>196</v>
-      </c>
-      <c r="B35" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36" t="s">
         <v>198</v>
-      </c>
-      <c r="B36" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" t="s">
         <v>200</v>
-      </c>
-      <c r="B37" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>201</v>
+      </c>
+      <c r="B38" t="s">
         <v>202</v>
-      </c>
-      <c r="B38" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" t="s">
         <v>204</v>
-      </c>
-      <c r="B39" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40" t="s">
         <v>206</v>
-      </c>
-      <c r="B40" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1676,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1690,308 +1693,308 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
         <v>73</v>
       </c>
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
         <v>77</v>
       </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
         <v>80</v>
       </c>
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
       <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
         <v>75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
         <v>82</v>
       </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
       <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
         <v>75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
         <v>84</v>
       </c>
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
       <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
         <v>75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
         <v>86</v>
       </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
         <v>88</v>
       </c>
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
       <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
         <v>75</v>
-      </c>
-      <c r="D12" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
         <v>90</v>
       </c>
-      <c r="B13" t="s">
-        <v>91</v>
-      </c>
       <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
         <v>75</v>
-      </c>
-      <c r="D13" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
         <v>92</v>
       </c>
-      <c r="B14" t="s">
-        <v>93</v>
-      </c>
       <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
         <v>75</v>
-      </c>
-      <c r="D14" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
         <v>94</v>
       </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
         <v>96</v>
       </c>
-      <c r="B16" t="s">
-        <v>97</v>
-      </c>
       <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
         <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" t="s">
         <v>98</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
         <v>99</v>
-      </c>
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" t="s">
         <v>101</v>
       </c>
-      <c r="B18" t="s">
-        <v>102</v>
-      </c>
       <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
         <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
         <v>103</v>
       </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
       <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
         <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
         <v>105</v>
       </c>
-      <c r="B20" t="s">
-        <v>106</v>
-      </c>
       <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
         <v>75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
         <v>107</v>
       </c>
-      <c r="B21" t="s">
-        <v>108</v>
-      </c>
       <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
         <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="B22" t="s">
-        <v>110</v>
-      </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" t="s">
         <v>111</v>
       </c>
-      <c r="B23" t="s">
-        <v>112</v>
-      </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2022,10 +2025,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -2036,7 +2039,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -2048,7 +2051,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -2060,7 +2063,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -2072,7 +2075,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>17</v>
@@ -2086,237 +2089,237 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="32.25" customHeight="1">
       <c r="A7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>124</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s">
         <v>126</v>
-      </c>
-      <c r="G7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="36.75" customHeight="1">
       <c r="A8" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" t="s">
         <v>128</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" t="s">
         <v>129</v>
       </c>
-      <c r="C8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" t="s">
-        <v>130</v>
-      </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s">
         <v>126</v>
-      </c>
-      <c r="G8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.5" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
         <v>133</v>
-      </c>
-      <c r="G10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>143</v>
-      </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" t="s">
         <v>136</v>
       </c>
-      <c r="B12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>138</v>
-      </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30">
       <c r="A13" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="40.5">
       <c r="A14" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" t="s">
         <v>208</v>
       </c>
-      <c r="B14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="E14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>210</v>
-      </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2346,87 +2349,87 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
         <v>161</v>
-      </c>
-      <c r="B1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" t="s">
         <v>181</v>
-      </c>
-      <c r="B9" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" t="s">
         <v>183</v>
-      </c>
-      <c r="B10" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" t="s">
         <v>185</v>
-      </c>
-      <c r="B11" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2446,90 +2449,90 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" t="s">
         <v>213</v>
-      </c>
-      <c r="B2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" t="s">
         <v>215</v>
-      </c>
-      <c r="B3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" t="s">
         <v>217</v>
-      </c>
-      <c r="B4" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" t="s">
         <v>219</v>
-      </c>
-      <c r="B5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" t="s">
         <v>221</v>
-      </c>
-      <c r="B6" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" t="s">
         <v>223</v>
-      </c>
-      <c r="B7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" t="s">
         <v>225</v>
-      </c>
-      <c r="B8" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" t="s">
         <v>227</v>
-      </c>
-      <c r="B9" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" t="s">
         <v>229</v>
-      </c>
-      <c r="B10" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" t="s">
         <v>231</v>
-      </c>
-      <c r="B11" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2554,24 +2557,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>237</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/Project_177/TestData/InputData.xlsx
+++ b/Project_177/TestData/InputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="7950" windowHeight="3495" tabRatio="709" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="7950" windowHeight="3495" tabRatio="709" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="241">
   <si>
     <t>ApplicationURl</t>
   </si>
@@ -419,9 +419,6 @@
     <t>Tc0016 _Email_val_Valid</t>
   </si>
   <si>
-    <t>i0118</t>
-  </si>
-  <si>
     <t>object</t>
   </si>
   <si>
@@ -515,9 +512,6 @@
     <t>NEwuser3</t>
   </si>
   <si>
-    <t>NEwuser4</t>
-  </si>
-  <si>
     <t>NEwuser5</t>
   </si>
   <si>
@@ -569,9 +563,6 @@
     <t>NewPwd9</t>
   </si>
   <si>
-    <t>NEwuser10</t>
-  </si>
-  <si>
     <t>NewPwd10</t>
   </si>
   <si>
@@ -650,9 +641,6 @@
     <t>%*^*(*&amp;*(</t>
   </si>
   <si>
-    <t>Enter a valid email address, phone number or Skype name.</t>
-  </si>
-  <si>
     <t>Ak12345</t>
   </si>
   <si>
@@ -744,13 +732,25 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>MobileNumber_With_Characters</t>
+  </si>
+  <si>
+    <t>9076hygh</t>
+  </si>
+  <si>
+    <t>//input[@id='i0118']</t>
+  </si>
+  <si>
+    <t>The phone number you entered isn't valid. Your phone number can contain numbers, spaces, and these special characters: ( ) [ ] . - # * /</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,6 +768,10 @@
     <font>
       <sz val="11"/>
       <color rgb="FFE81123"/>
+      <name val="Ebrima"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Ebrima"/>
     </font>
   </fonts>
@@ -831,7 +835,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -855,9 +859,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1191,18 +1197,18 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1217,13 +1223,13 @@
         <v>10000.120000000001</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1306,7 +1312,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
         <v>123</v>
@@ -1525,146 +1531,146 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B34" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B39" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1679,7 +1685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1696,7 +1702,7 @@
         <v>65</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2004,10 +2010,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2017,7 +2023,7 @@
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="42.7109375" customWidth="1"/>
+    <col min="6" max="6" width="52.5703125" customWidth="1"/>
     <col min="7" max="7" width="25.42578125" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
@@ -2025,10 +2031,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -2075,7 +2081,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>17</v>
@@ -2113,7 +2119,7 @@
         <v>121</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="32.25" customHeight="1">
@@ -2121,7 +2127,7 @@
         <v>122</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
         <v>123</v>
@@ -2136,7 +2142,7 @@
         <v>125</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
         <v>126</v>
@@ -2162,13 +2168,13 @@
         <v>125</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28.5" customHeight="1">
+    <row r="9" spans="1:9" ht="38.25" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>130</v>
       </c>
@@ -2182,11 +2188,11 @@
       <c r="E9" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>138</v>
+      <c r="F9" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
         <v>126</v>
@@ -2209,18 +2215,18 @@
         <v>128</v>
       </c>
       <c r="F10" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
         <v>132</v>
-      </c>
-      <c r="G10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
         <v>128</v>
@@ -2229,16 +2235,16 @@
         <v>128</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
         <v>128</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
         <v>126</v>
@@ -2246,7 +2252,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
         <v>128</v>
@@ -2255,16 +2261,16 @@
         <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
         <v>128</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
         <v>126</v>
@@ -2272,7 +2278,7 @@
     </row>
     <row r="13" spans="1:9" ht="30">
       <c r="A13" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
         <v>128</v>
@@ -2281,24 +2287,24 @@
         <v>128</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" t="s">
         <v>128</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="40.5">
+    <row r="14" spans="1:9" ht="33.75">
       <c r="A14" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B14" t="s">
         <v>128</v>
@@ -2307,18 +2313,44 @@
         <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E14" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>209</v>
+      <c r="F14" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="G14" t="s">
         <v>78</v>
       </c>
       <c r="H14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="60.75">
+      <c r="A15" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2337,8 +2369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2349,87 +2381,87 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
         <v>160</v>
-      </c>
-      <c r="B1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>164</v>
+      <c r="A4">
+        <v>903024</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" t="s">
         <v>171</v>
-      </c>
-      <c r="B7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" t="s">
         <v>172</v>
-      </c>
-      <c r="B8" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>111111</v>
+      </c>
+      <c r="B10" t="s">
         <v>180</v>
-      </c>
-      <c r="B9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2449,90 +2481,90 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2557,24 +2589,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/Project_177/TestData/InputData.xlsx
+++ b/Project_177/TestData/InputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="7950" windowHeight="3495" tabRatio="709" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="7950" windowHeight="3495" tabRatio="709" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="252">
   <si>
     <t>ApplicationURl</t>
   </si>
@@ -744,6 +744,39 @@
   </si>
   <si>
     <t>The phone number you entered isn't valid. Your phone number can contain numbers, spaces, and these special characters: ( ) [ ] . - # * /</t>
+  </si>
+  <si>
+    <t>Ak0001</t>
+  </si>
+  <si>
+    <t>Ak0002</t>
+  </si>
+  <si>
+    <t>Ak0003</t>
+  </si>
+  <si>
+    <t>Ak0004</t>
+  </si>
+  <si>
+    <t>Ak0005</t>
+  </si>
+  <si>
+    <t>Ak0006</t>
+  </si>
+  <si>
+    <t>Ak0007</t>
+  </si>
+  <si>
+    <t>Ak0008</t>
+  </si>
+  <si>
+    <t>Ak0009</t>
+  </si>
+  <si>
+    <t>Ak0010</t>
+  </si>
+  <si>
+    <t>Ak0011</t>
   </si>
 </sst>
 </file>
@@ -2369,7 +2402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2471,100 +2504,133 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>207</v>
       </c>
       <c r="B1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>208</v>
       </c>
       <c r="B2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>210</v>
       </c>
       <c r="B3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>212</v>
       </c>
       <c r="B4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>214</v>
       </c>
       <c r="B5" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>216</v>
       </c>
       <c r="B6" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>218</v>
       </c>
       <c r="B7" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>220</v>
       </c>
       <c r="B8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>222</v>
       </c>
       <c r="B9" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>224</v>
       </c>
       <c r="B10" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>226</v>
       </c>
       <c r="B11" t="s">
         <v>227</v>
+      </c>
+      <c r="C11" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
